--- a/app/src/main/assets/animal_des.xlsx
+++ b/app/src/main/assets/animal_des.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenh\Documents\GitHub\ObjectOwl\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76DA746-FED4-4520-8FA1-091B13A44001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA52DB4-286A-4A33-882B-65E3423C1BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{A921A5D6-B494-449A-B736-E25CFCB5B7AE}"/>
+    <workbookView xWindow="5340" yWindow="3330" windowWidth="38700" windowHeight="15345" xr2:uid="{A921A5D6-B494-449A-B736-E25CFCB5B7AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,376 @@
     <t>Cat</t>
   </si>
   <si>
-    <t>Habitat:
+    <t>Habitat: Cats are found in homes, farms, and occasionally in the wild. Domesticated cats thrive in urban and rural environments and can live indoors or outdoors.
+Reproduction: Cats are viviparous and typically give birth to 3-6 kittens per litter. Cats reach maturity quickly, with a pregnancy lasting about 9 weeks.
+Height &amp; Weight: Adult cats range from 23 to 25 cm tall and typically weigh 3-7 kg, depending on their breed and health.
+Sound: Cats communicate with a range of sounds, including meowing, purring (when content), and hissing (when threatened). Cats also "chirp" or "chatter" when they see birds or other prey.
+Characterization: Cats are independent, agile, and curious. They are known for their ability to jump high and land gracefully. Cats are excellent hunters and enjoy chasing small animals or toys. They are often affectionate with their owners but are also content spending time alone.
+Diet: Cats are obligate carnivores, meaning they need meat to survive. In the wild, they hunt small prey like birds and rodents, while pet cats are typically fed cat food.
+Fun Fact: Cats have retractable claws that help them keep their claws sharp for hunting and climbing.</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Zebra</t>
+  </si>
+  <si>
+    <t>Giraffe</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>Kangaroo</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Koala</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Crocodile</t>
+  </si>
+  <si>
+    <t>Dolphin</t>
+  </si>
+  <si>
+    <t>Whale</t>
+  </si>
+  <si>
+    <t>Shark</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Frog</t>
+  </si>
+  <si>
+    <t>Duck</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Owl</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Deer</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Habitat: Birds are found in almost every type of habitat on Earth, including forests, wetlands, mountains, deserts, and even urban areas. Some birds migrate long distances to find food or breed.
+Reproduction: Birds are oviparous, laying eggs that hatch after a certain period. Depending on the species, birds may lay one or multiple eggs at a time.
+Height &amp; Weight: Bird sizes vary widely depending on the species. Small birds like sparrows can be 10 cm tall and weigh 15 grams, while large birds like eagles can reach up to 100 cm and weigh up to 6 kg.
+Sound: Birds make a variety of sounds, from chirps and whistles to songs. Singing is often a way for male birds to attract mates or mark their territory.
+Characterization: Birds are highly diverse in their appearance and behavior. Most birds have the ability to fly using their wings, and they build nests to lay their eggs. Some birds, like parrots, can mimic human speech, while others, like owls, are known for their exceptional night vision.
+Diet: Birds' diets vary by species. Some are herbivores (eating seeds, fruits, and nectar), while others are carnivores (eating insects, small mammals, or fish).
+Fun Fact: The peregrine falcon is the fastest bird in the world, reaching speeds of over 300 km/h (186 mph) when diving for prey.</t>
+  </si>
+  <si>
+    <t>Habitat: Fish live in a variety of aquatic environments, including freshwater rivers and lakes, as well as saltwater oceans and seas. They are found at all depths, from shallow waters to deep ocean floors.
+Reproduction: Most fish are oviparous, meaning they lay eggs, but some species, like certain types of sharks, give birth to live young (viviparous).
+Height &amp; Weight: Fish come in many sizes. Small fish, like guppies, may be only a few centimeters long and weigh a few grams, while larger fish, like whale sharks, can reach lengths of 12 meters and weigh several tons.
+Sound: Fish are generally silent, but some species produce low-frequency sounds to communicate or ward off predators.
+Characterization: Fish are known for their streamlined bodies that help them swim efficiently. They have gills that allow them to breathe underwater, and most have scales for protection. Some fish live in schools, while others prefer solitude.
+Diet: Fish diets depend on their species. Carnivorous fish eat smaller fish and invertebrates, while herbivorous fish eat plants and algae.
+Fun Fact: The anglerfish uses a glowing lure on its head to attract prey in the dark depths of the ocean.</t>
+  </si>
+  <si>
+    <t>Habitat: Horses are domesticated animals found in farms, grasslands, and stables. Wild horses live in open plains, deserts, or grasslands.
+Reproduction: Horses are viviparous, giving birth to live young (called foals) after a pregnancy lasting about 11 months. Typically, one foal is born at a time.
+Height &amp; Weight: Horses stand between 140-170 cm tall and weigh 380-1,000 kg, depending on the breed.
+Sound: Horses neigh, whinny, or snort to communicate. They also "nicker" softly to greet their owners or other horses.
+Characterization: Horses are known for their strength, speed, and endurance. They are used for riding, farming, and competitive sports like racing and jumping. Horses form strong bonds with humans and are often seen as symbols of freedom and power.
+Diet: Horses are herbivores, feeding mainly on grasses, hay, and grains. They spend much of their day grazing.
+Fun Fact: Horses can sleep both lying down and standing up, thanks to a special mechanism in their legs that locks their joints in place</t>
+  </si>
+  <si>
+    <t>Habitat: Elephants are found in savannas, forests, and grasslands in Africa and Asia. They prefer environments with plenty of food and water sources.
+Reproduction: Elephants are viviparous and have one of the longest pregnancies of any land animal, lasting about 22 months. Typically, a single calf is born, weighing around 100 kg at birth.
+Height &amp; Weight: Elephants stand 250-400 cm tall and weigh 2,700-6,000 kg.
+Sound: Elephants communicate using low-frequency sounds called "rumbles" and trumpeting noises. They can communicate over long distances using these sounds.
+Characterization: Elephants are known for their large size, long trunks, and tusks. They are highly intelligent and social animals, often living in herds led by a matriarch. Elephants have excellent memories and are capable of complex emotions such as grief and compassion.
+Diet: Elephants are herbivores, eating large amounts of vegetation such as grasses, leaves, fruits, and bark. An adult elephant can eat up to 150 kg of food a day.
+Fun Fact: Elephants can use their trunks for a variety of tasks, including grabbing objects, drinking water, and even showing affection by wrapping trunks around each other.</t>
+  </si>
+  <si>
+    <t>Habitat: Lions are found in the savannas, grasslands, and open woodlands of sub-Saharan Africa. They prefer environments where they can find plenty of prey, such as zebras and antelopes.
+Reproduction: Lions are viviparous. After a gestation period of about 110 days, lionesses give birth to 1-4 cubs. Cubs are born blind and rely on their mother for protection and food.
+Height &amp; Weight: Male lions can reach heights of up to 120 cm at the shoulder and weigh between 150-250 kg. Females are slightly smaller, weighing 120-180 kg.
+Sound: Lions are known for their powerful roar, which can be heard up to 8 km away. They also communicate through growls, grunts, and moans.
+Characterization: Lions are often called "the king of the jungle" due to their majestic appearance and dominance in the animal kingdom. They live in groups called prides, which are composed of related females, their offspring, and a few adult males. Lions are powerful hunters, with females doing most of the hunting while males protect the pride.
+Diet: Lions are carnivores and primarily hunt large herbivores like zebras, buffalo, and antelope. They use teamwork to take down their prey.
+Fun Fact: Male lions develop a mane as they grow older, which serves to protect their necks during fights and makes them appear larger to rivals.</t>
+  </si>
+  <si>
+    <t>Habitat: Tigers are found in a variety of habitats, including tropical forests, grasslands, and swamps, primarily in Asia. The largest populations are found in India.
+Reproduction: Tigers are viviparous, with females giving birth to 2-4 cubs after a gestation period of about 3.5 months. Cubs stay with their mother for two years before becoming independent.
+Height &amp; Weight: Tigers can reach heights of 90-110 cm at the shoulder and weigh between 100-300 kg, depending on the subspecies.
+Sound: Tigers roar, growl, and make a chuffing sound when content. Their roar can be heard over long distances.
+Characterization: Tigers are solitary animals and the largest of all big cats. They are known for their beautiful orange coats with black stripes, which help them blend into the forest. Tigers are powerful swimmers and often hunt by ambushing their prey.
+Diet: Tigers are carnivorous, preying on deer, wild boar, and even water buffalo. They can eat up to 40 kg of meat in one meal.
+Fun Fact: No two tigers have the same stripe pattern, making each tiger unique, much like human fingerprints.</t>
+  </si>
+  <si>
+    <t>Habitat: Cows are domesticated animals found on farms, grasslands, and ranches worldwide. They are raised primarily for milk, meat, and leather.
+Reproduction: Cows are viviparous, with a gestation period of about 9 months. Usually, one calf is born, but twins can occur occasionally.
+Height &amp; Weight: Adult cows stand between 120-150 cm tall and can weigh anywhere from 400-1,100 kg depending on the breed.
+Sound: Cows make a distinctive "moo" sound, which they use to communicate with each other and their calves.
+Characterization: Cows are gentle and social animals, often living in herds. They are important in agriculture, providing milk, meat, and other products. Cows spend most of their day grazing on grass and chewing cud.
+Diet: Cows are herbivores and primarily eat grass, hay, and grains. Their four-chambered stomachs allow them to digest tough plant materials.
+Fun Fact: Cows have an excellent sense of smell and can detect odors up to 8 kilometers away</t>
+  </si>
+  <si>
+    <t>Habitat: Sheep are domesticated animals raised on farms and pastures around the world. They prefer open grasslands and meadows where they can graze.
+Reproduction: Sheep are viviparous, typically giving birth to 1-2 lambs after a gestation period of about 5 months.
+Height &amp; Weight: Sheep stand between 60-120 cm tall and weigh between 45-160 kg, depending on the breed.
+Sound: Sheep communicate by bleating, a sound that is often heard as "baa." Ewes and their lambs can recognize each other by their unique bleats.
+Characterization: Sheep are known for their woolly coats, which are sheared once a year to make wool for clothing. They are gentle, flock animals that stick together for protection. Sheep are also raised for their meat and milk.
+Diet: Sheep are herbivores and primarily graze on grass, but they also eat hay and grains when available.
+Fun Fact: Sheep have excellent peripheral vision; their eyes are placed on the sides of their heads, allowing them to see almost 360 degrees around them.</t>
+  </si>
+  <si>
+    <t>Habitat: Rabbits are found in forests, meadows, grasslands, and even deserts. Domesticated rabbits are kept as pets or raised for their meat and fur.
+Reproduction: Rabbits are viviparous and have a very short gestation period of about 30 days, giving birth to 4-12 kits in each litter. They are known for their high reproductive rate.
+Height &amp; Weight: Rabbits range from 20-50 cm in height and weigh 0.5-2 kg, depending on the breed.
+Sound: Rabbits are generally quiet but can make soft squealing or thumping sounds when frightened or excited.
+Characterization: Rabbits are known for their long ears, strong hind legs, and ability to hop quickly. They dig burrows to live in and are social animals that live in groups. They are often associated with spring and fertility due to their rapid breeding.
+Diet: Rabbits are herbivores and primarily eat grass, vegetables, and fruits. Their digestive system is adapted to process large amounts of fiber.
+Fun Fact: A rabbit's teeth never stop growing, so they need to constantly chew on things to wear them down.</t>
+  </si>
+  <si>
+    <t>Habitat: Zebras live in the grasslands and savannas of Africa. They prefer open plains where they can graze and detect predators from a distance.
+Reproduction: Zebras are viviparous, giving birth to one foal after a gestation period of about 12-13 months. Foals are able to stand and walk shortly after birth.
+Height &amp; Weight: Zebras stand 130-150 cm tall at the shoulder and weigh between 200-450 kg.
+Sound: Zebras make barking sounds, brays, and high-pitched squeals to communicate with each other.
+Characterization: Zebras are famous for their black and white stripes, which help them camouflage in the tall grasses of their environment. They live in groups called herds and are known for their speed and agility when escaping predators like lions.
+Diet: Zebras are herbivores and spend most of their day grazing on grasses. They also eat leaves, bark, and shrubs when grass is scarce.
+Fun Fact: No two zebras have the same stripe pattern, making each zebra unique</t>
+  </si>
+  <si>
+    <t>Habitat: Giraffes are native to the African savannas and open woodlands. They prefer areas with plenty of trees, especially acacias, which provide their primary food source.
+Reproduction: Giraffes are viviparous and give birth to one calf after a gestation period of about 15 months. Giraffe calves are about 1.8 meters tall at birth and can stand and walk within a few hours.
+Height &amp; Weight: Giraffes are the tallest land animals, reaching heights of 400-600 cm and weighing between 800-1,200 kg.
+Sound: Giraffes are generally quiet, but they can produce low humming sounds, grunts, and snorts to communicate.
+Characterization: Giraffes are known for their extremely long necks and legs, which allow them to reach the leaves on tall trees. Despite their height, they are gentle creatures that live in loose social groups. Giraffes have a distinct walking pattern, moving both legs on one side of their body at the same time.
+Diet: Giraffes are herbivores and primarily eat the leaves of acacia trees. They use their long tongues to grasp and pull down branches.
+Fun Fact: A giraffe's tongue can be up to 45 cm long and is specially adapted to grab leaves and avoid the thorns on acacia trees.</t>
+  </si>
+  <si>
+    <t>Habitat: Monkeys are found in tropical rainforests, savannas, mountains, and grasslands around the world, especially in South America, Asia, and Africa.
+Reproduction: Monkeys are viviparous and give birth to one or two offspring after a gestation period of about 4-7 months, depending on the species.
+Height &amp; Weight: Monkeys vary greatly in size. Small monkeys like marmosets may only weigh 100 grams, while larger species like baboons can weigh over 30 kg.
+Sound: Monkeys are very vocal, using a variety of sounds to communicate, including chattering, screeching, and whooping.
+Characterization: Monkeys are known for their intelligence, agility, and social behavior. Many species live in large groups called troops, where they groom each other and establish strong bonds. Monkeys are highly curious and often use tools to get food. They are excellent climbers and use their hands, feet, and sometimes tails to grasp branches.
+Diet: Monkeys are omnivores, eating fruits, leaves, insects, and small animals. Some species specialize in certain types of food, such as fruit or insects.
+Fun Fact: Some monkeys, like capuchins, use tools to crack open nuts or retrieve insects from tree bark, demonstrating their advanced problem-solving abilities.</t>
+  </si>
+  <si>
+    <t>Habitat: Giant pandas are native to the bamboo forests of the mountainous regions of central China, primarily in Sichuan, Shaanxi, and Gansu provinces.
+Reproduction: Pandas are viviparous, with females giving birth to one or two cubs after a gestation period of about 5 months. Cubs are born very small and helpless, weighing only 100 grams.
+Height &amp; Weight: Adult pandas stand between 60-90 cm tall at the shoulder and weigh between 70-160 kg, depending on their diet and environment.
+Sound: Pandas communicate using a variety of vocalizations, including bleating, honking, growling, and barking.
+Characterization: Pandas are known for their distinctive black and white coloring and their gentle, calm nature. They are solitary animals and spend most of their time eating bamboo, their primary food source. Pandas are excellent climbers and swimmers, despite their bulky appearance.
+Diet: Although pandas are classified as carnivores, they are largely herbivorous, with bamboo making up about 99% of their diet. They may occasionally eat small animals or eggs.
+Fun Fact: A panda can eat up to 12 kg of bamboo each day! They have a specially adapted wrist bone that functions like a thumb, allowing them to grasp bamboo stalks.</t>
+  </si>
+  <si>
+    <t>Habitat: Kangaroos are native to Australia, where they live in open grasslands, forests, and scrublands. Some species also inhabit coastal areas.
+Reproduction: Kangaroos are viviparous marsupials, meaning their young are born underdeveloped and continue to grow in the mother's pouch. After a gestation period of about 30-40 days, a tiny joey is born and crawls into the mother's pouch, where it nurses and grows for several months.
+Height &amp; Weight: Adult kangaroos can stand between 100-160 cm tall and weigh between 20-90 kg, depending on the species.
+Sound: Kangaroos make a variety of sounds, including chortling, coughing, and clicking. Mothers communicate with their joeys using soft clucking noises.
+Characterization: Kangaroos are known for their strong hind legs and large feet, which allow them to hop at great speeds. They also have long, muscular tails used for balance. Kangaroos are social animals, often seen in groups called mobs, and are herbivores that graze on grasses and plants.
+Diet: Kangaroos primarily eat grass, leaves, and shrubs. They are able to survive in arid environments by conserving water and eating drought-resistant plants.
+Fun Fact: Kangaroos can travel at speeds of up to 60 km/h (37 mph) and can leap over obstacles as high as 3 meters in a single bound!</t>
+  </si>
+  <si>
+    <t>Habitat: Penguins are found primarily in the Southern Hemisphere, with most species living in Antarctica, South America, Africa, and New Zealand. They prefer coastal regions and are often seen on icy shores or rocky islands.
+Reproduction: Penguins are oviparous, laying one or two eggs at a time, depending on the species. The parents take turns incubating the eggs and keeping them warm.
+Height &amp; Weight: Penguin sizes vary widely depending on the species. The smallest species, the Little Blue Penguin, stands about 40 cm tall and weighs around 1 kg, while the Emperor Penguin, the largest species, can stand up to 120 cm tall and weigh over 40 kg.
+Sound: Penguins communicate with a variety of vocalizations, including honks, brays, and squawks. They often use these sounds to recognize their mates or chicks in crowded colonies.
+Characterization: Penguins are flightless birds known for their distinctive black and white plumage and waddling walk. They are excellent swimmers, using their wings as flippers to propel themselves through the water. Penguins spend much of their time hunting fish, squid, and krill in the ocean.
+Diet: Penguins are carnivorous and primarily eat fish, krill, and squid. They are exceptional hunters and can dive to great depths to catch their prey.
+Fun Fact: Emperor Penguins can hold their breath for up to 20 minutes and dive to depths of over 500 meters when hunting for food.</t>
+  </si>
+  <si>
+    <t>Habitat: Koalas are found in eucalyptus forests along the eastern coast of Australia. They prefer environments with plenty of eucalyptus trees, which provide both food and shelter.
+Reproduction: Koalas are viviparous marsupials, giving birth to underdeveloped young that continue to grow in the mother's pouch. After a gestation period of about 35 days, a tiny joey is born and crawls into the pouch, where it will stay for about six months.
+Height &amp; Weight: Koalas typically stand between 60-85 cm tall and weigh between 4-15 kg, depending on their habitat and diet.
+Sound: Koalas make low grunts and bellows to communicate, especially during mating season. They are usually quiet animals.
+Characterization: Koalas are nocturnal, tree-dwelling marsupials known for their fuzzy ears and sleepy demeanor. They spend most of their time in eucalyptus trees, where they eat leaves and sleep up to 20 hours a day. Despite their chubby appearance, koalas are excellent climbers.
+Diet: Koalas are herbivores and eat almost exclusively eucalyptus leaves. They have a specialized digestive system that allows them to break down the tough leaves, which are toxic to most animals.
+Fun Fact: Koalas have fingerprints that are nearly identical to human fingerprints, making them one of the few non-primate animals to have this feature.</t>
+  </si>
+  <si>
+    <t>Habitat: Snakes are found in a variety of environments, including forests, deserts, grasslands, and wetlands. Some species live in water, while others are terrestrial or arboreal (tree-dwelling).
+Reproduction: Snakes can be oviparous (laying eggs) or viviparous (giving birth to live young), depending on the species. Egg-laying snakes deposit their eggs in safe, hidden places until they hatch.
+Height &amp; Weight: Snake sizes vary greatly depending on the species. Small snakes may only be 10 cm long, while large species like pythons and anacondas can grow to over 8 meters and weigh hundreds of kilograms.
+Sound: Snakes don't vocalize but can produce hissing sounds to warn off predators. Some species, like rattlesnakes, make noise with their tails.
+Characterization: Snakes are known for their elongated, legless bodies and smooth scales. They move by slithering, using muscles along their bodies. Some species, like cobras, are venomous and use their fangs to inject venom into their prey, while others, like pythons, constrict their prey by wrapping around them.
+Diet: Snakes are carnivorous, feeding on small animals like rodents, birds, and amphibians. Larger snakes can take down bigger prey, such as deer or pigs.
+Fun Fact: Some snakes, like the boa constrictor, can unhinge their jaws to swallow prey that is much larger than their head!</t>
+  </si>
+  <si>
+    <t>Habitat: Crocodiles are found in freshwater habitats such as rivers, lakes, wetlands, and sometimes brackish water (a mix of saltwater and freshwater). They live in tropical regions around the world, including Africa, Asia, Australia, and the Americas.
+Reproduction: Crocodiles are oviparous, laying their eggs in nests near water. The mother guards the nest until the eggs hatch, and she may help her young reach the water.
+Height &amp; Weight: Crocodiles can grow to an impressive size, with some species reaching lengths of 3-7 meters and weighing up to 1,000 kg.
+Sound: Crocodiles make hissing sounds when threatened, and young crocodiles produce squeaking noises to communicate with their mother.
+Characterization: Crocodiles are ancient reptiles known for their powerful jaws, long tails, and armored skin. They are excellent swimmers and ambush predators, waiting near the water's edge to snatch prey like fish, birds, and mammals. Crocodiles can be very aggressive and are considered apex predators in their environments.
+Diet: Crocodiles are carnivorous and will eat almost any animal they can catch, including fish, birds, and mammals. Larger species may even hunt larger prey, such as zebras or wildebeest.
+Fun Fact: Crocodiles have an incredibly strong bite—up to 3,700 pounds per square inch (psi)—making them one of the strongest biters in the animal kingdom.</t>
+  </si>
+  <si>
+    <t>Habitat: Dolphins are found in oceans and rivers around the world. They prefer warm, tropical, and temperate waters, though some species live in colder waters.
+Reproduction: Dolphins are viviparous, giving birth to live young after a gestation period of about 12 months. A single calf is typically born and stays with its mother for several years.
+Height &amp; Weight: Dolphins vary in size, with the smallest species being around 2 meters long and weighing 100 kg, while the largest, like the orca (killer whale), can be over 8 meters long and weigh up to 5,500 kg.
+Sound: Dolphins communicate through clicks, whistles, and other vocalizations. They also use echolocation to navigate and find prey in the ocean.
+Characterization: Dolphins are highly intelligent and social animals, known for their playful behavior and strong family bonds. They are excellent swimmers, often seen leaping out of the water or riding waves. Dolphins live in groups called pods and cooperate in hunting and caring for their young.
+Diet: Dolphins are carnivorous and primarily eat fish and squid. They use echolocation to locate schools of fish and work together to herd and catch their prey.
+Fun Fact: Dolphins are one of the few animals that can recognize themselves in a mirror, a sign of self-awareness.</t>
+  </si>
+  <si>
+    <t>Habitat: Whales are found in all of the world’s oceans, from polar to tropical waters. Some species prefer coastal areas, while others live in the open ocean. Baleen whales like blue and humpback whales migrate long distances between feeding and breeding grounds.
+Reproduction: Whales are viviparous and give birth to live young. After a gestation period of 10-16 months, depending on the species, females give birth to a single calf. The mother nurses her calf for several months, providing rich milk.
+Height &amp; Weight: Whales vary significantly in size. The blue whale, the largest animal on Earth, can grow up to 30 meters in length and weigh over 180,000 kg, while smaller species, like the dwarf sperm whale, can be as short as 2.7 meters.
+Sound: Whales produce a variety of sounds, from clicks and whistles to the haunting songs of humpback whales. These vocalizations are used to communicate, find mates, and navigate the ocean.
+Characterization: Whales are known for their enormous size, intelligence, and social behaviors. Some species, like orcas, live in tight family groups known as pods, while others, like blue whales, are more solitary. Whales are powerful swimmers and can travel thousands of kilometers during migration.
+Diet: Baleen whales filter small organisms like krill, plankton, and small fish from the water using comb-like baleen plates. Toothed whales, such as orcas and sperm whales, hunt larger prey like fish, squid, and even other marine mammals.
+Fun Fact: The blue whale's heart is so large that a human could crawl through its arteries, and its heart alone weighs as much as a car!</t>
+  </si>
+  <si>
+    <t>Habitat: Sharks are found in all the world’s oceans, from shallow coastal waters to the deep sea. Some species, like the great white shark, prefer cooler waters, while others, like the reef shark, live in warmer, tropical regions.
+Reproduction: Depending on the species, sharks can be oviparous (laying eggs) or viviparous (giving birth to live young). Some sharks, like the great white, give birth to live young, while others, like the horn shark, lay eggs in protective cases.
+Height &amp; Weight: Sharks vary greatly in size, from the small dwarf lantern shark, which is only 17 cm long, to the massive whale shark, which can grow up to 12 meters and weigh over 20,000 kg.
+Sound: Sharks are typically silent hunters and do not produce sounds, relying on their keen senses to locate prey.
+Characterization: Sharks are apex predators, known for their sharp teeth, streamlined bodies, and powerful swimming abilities. They have been around for over 400 million years, making them one of the oldest species on Earth. Sharks are known for their acute senses, including their ability to detect the electrical signals of prey.
+Diet: Most sharks are carnivorous, feeding on fish, squid, and marine mammals. Some species, like the whale shark, are filter feeders and consume plankton.
+Fun Fact: Sharks have rows of teeth that are constantly replaced throughout their lives. Some species can lose thousands of teeth over their lifetime.</t>
+  </si>
+  <si>
+    <t>Habitat: Turtles are found in a variety of environments, including oceans, rivers, lakes, and on land. Sea turtles inhabit coastal waters and open oceans, while freshwater turtles live in ponds and rivers, and terrestrial turtles (tortoises) live in dry environments.
+Reproduction: Turtles are oviparous, laying eggs in nests dug into sand or soil. Female sea turtles return to the same beaches where they were born to lay their eggs, and the hatchlings must make their way to the ocean on their own after hatching.
+Height &amp; Weight: Turtles come in many sizes. The largest, the leatherback sea turtle, can grow up to 2 meters in length and weigh as much as 900 kg, while smaller freshwater species may only reach 20 cm in length.
+Sound: Turtles are generally quiet animals but may produce soft grunts or hissing sounds when threatened.
+Characterization: Turtles are known for their hard shells, which provide protection from predators. They are slow-moving on land but can be swift and graceful swimmers in the water. Sea turtles migrate long distances between feeding and nesting grounds.
+Diet: Depending on the species, turtles can be herbivorous, carnivorous, or omnivorous. Sea turtles feed on jellyfish, seagrass, and algae, while freshwater turtles may eat fish, insects, and plants.
+Fun Fact: Sea turtles can hold their breath for hours while diving, and some species can travel thousands of kilometers during migration.</t>
+  </si>
+  <si>
+    <t>Habitat: Frogs live in a wide range of habitats, including forests, wetlands, ponds, and rivers. They are most commonly found near bodies of fresh water, where they lay their eggs and spend their early life stages.
+Reproduction: Frogs are oviparous, laying their eggs in water. The eggs hatch into tadpoles, which are aquatic and undergo metamorphosis to become adult frogs. Frogs usually lay hundreds or even thousands of eggs at a time.
+Height &amp; Weight: Frogs vary greatly in size, with some small species being just a few centimeters long, while larger species, like the goliath frog, can grow up to 30 cm and weigh over 3 kg.
+Sound: Frogs are known for their distinctive croaking, ribbiting, and chirping sounds, which they use to communicate, especially during mating season. Male frogs often call to attract females.
+Characterization: Frogs are amphibians, meaning they live both in water and on land. They have strong hind legs for jumping and are excellent swimmers. Frogs are also known for their smooth, moist skin, which they need to keep hydrated.
+Diet: Frogs are carnivorous, primarily eating insects, spiders, and other small invertebrates. Larger frogs may eat small animals like mice or other frogs.
+Fun Fact: Frogs can absorb water through their skin, so they don’t need to drink water like most animals do.</t>
+  </si>
+  <si>
+    <t>Habitat: Ducks live in freshwater habitats such as lakes, rivers, and ponds. Some species also inhabit coastal marshes and wetlands. They are found all over the world in both temperate and tropical regions.
+Reproduction: Ducks are oviparous, laying a clutch of eggs in a nest, usually near water. The mother incubates the eggs for about 28 days, and the ducklings are able to swim and feed themselves shortly after hatching.
+Height &amp; Weight: Ducks range in size, with small species weighing around 0.5 kg and larger species, like the mallard, weighing up to 1.5 kg.
+Sound: Ducks are known for their distinctive "quack" sounds, but they also make other vocalizations such as whistles, grunts, and coos, depending on the species.
+Characterization: Ducks are waterfowl with webbed feet, which make them excellent swimmers. They are known for their waddling walk and ability to fly short to long distances. Ducks are social animals, often seen in flocks, and they feed by dabbling or diving for food.
+Diet: Ducks are omnivorous and eat a variety of foods, including aquatic plants, insects, small fish, and grains. They often forage by dipping their heads underwater while floating.
+Fun Fact: Not all ducks quack! Some species, like the wood duck, make whistling sounds instead of quacking.</t>
+  </si>
+  <si>
+    <t>Habitat: Goats are domesticated animals found on farms and in mountainous regions. Wild goats live in rocky, mountainous areas where they are well adapted to climbing steep slopes.
+Reproduction: Goats are viviparous, giving birth to 1-3 kids after a gestation period of about 5 months. The kids are usually able to stand and walk within hours of being born.
+Height &amp; Weight: Goats stand between 40-120 cm tall and weigh between 30-140 kg, depending on the breed.
+Sound: Goats are known for their bleating, a sound that is often heard as "baa." They use this sound to communicate with each other and their young.
+Characterization: Goats are hardy animals known for their ability to climb steep, rocky terrains. They are curious and intelligent, often using their agility to escape enclosures. Goats are also known for their valuable products, such as milk, meat, and wool.
+Diet: Goats are herbivores and prefer to browse on leaves, shrubs, and grasses. They are highly adaptable and can eat a wide variety of vegetation.
+Fun Fact: Goats have rectangular pupils, which give them excellent peripheral vision and help them spot predators.</t>
+  </si>
+  <si>
+    <t>Habitat: Pigs are domesticated animals found on farms around the world. Wild pigs, such as wild boars, inhabit forests, grasslands, and swamps.
+Reproduction: Pigs are viviparous, with sows giving birth to 6-12 piglets after a gestation period of about 3.5 months. Piglets are born fully developed and can walk and nurse within minutes of birth.
+Height &amp; Weight: Pigs vary in size, with domesticated breeds weighing between 30-300 kg, while wild pigs can weigh up to 350 kg.
+Sound: Pigs communicate using grunts, oinks, and squeals. They use these sounds to express a variety of emotions, such as contentment, excitement, or distress.
+Characterization: Pigs are highly intelligent animals known for their social behavior. They are often raised for their meat, but they are also kept as pets. Pigs enjoy rooting in the ground with their snouts, searching for food.
+Diet: Pigs are omnivores and eat a variety of foods, including fruits, vegetables, grains, and small animals. They are highly adaptable and can find food in a wide range of environments.
+Fun Fact: Pigs are clean animals by nature. Despite their reputation, pigs do not like to soil the areas where they sleep and will often designate a specific spot for waste.</t>
+  </si>
+  <si>
+    <t>Habitat: Owls are found in a variety of habitats, including forests, grasslands, deserts, and even urban areas. They prefer environments with plenty of trees or open areas where they can hunt.
+Reproduction: Owls are oviparous, laying eggs in nests made in tree cavities, on cliff ledges, or in abandoned buildings. The female incubates the eggs, and both parents help feed the young.
+Height &amp; Weight: Owls range in size from small species, like the elf owl (15 cm, 50 grams), to large species, like the Eurasian eagle owl (70 cm, 4 kg).
+Sound: Owls are known for their hoots, but they also make other sounds like screeches, whistles, and barks, depending on the species.
+Characterization: Owls are nocturnal birds of prey with large eyes adapted for seeing in low light. They have silent flight due to their soft, fringed feathers, making them excellent hunters of small mammals, birds, and insects.
+Diet: Owls are carnivorous and feed primarily on small mammals like mice, rats, and rabbits, though some species hunt birds, insects, and fish.
+Fun Fact: Owls can turn their heads up to 270 degrees, allowing them to look in almost any direction without moving their bodies.</t>
+  </si>
+  <si>
+    <t>Habitat: Eagles are found across a variety of habitats, including mountains, forests, grasslands, and near bodies of water such as lakes, rivers, and coasts. They are most commonly found in North America, Europe, Asia, and Africa.
+Reproduction: Eagles are oviparous, typically laying 1-3 eggs in large nests called eyries, which are built high in trees or on cliffs. Both parents take turns incubating the eggs, and the young are cared for by both parents after hatching.
+Height &amp; Weight: Eagles vary in size depending on the species. The bald eagle, for example, stands about 90 cm tall and has a wingspan of up to 2.5 meters. They can weigh between 3-7 kg.
+Sound: Eagles make high-pitched, whistling or chirping calls. They use these vocalizations to communicate with their mates or to defend their territory.
+Characterization: Eagles are powerful birds of prey known for their sharp talons, hooked beaks, and keen eyesight, which allows them to spot prey from great distances. They are excellent hunters, preying on fish, small mammals, and other birds. Eagles are also symbols of strength and freedom in many cultures.
+Diet: Eagles are carnivorous and typically hunt fish, small mammals, and other birds. They are skilled at catching fish by swooping down and snatching them from the water.
+Fun Fact: Eagles can fly at altitudes of up to 10,000 feet and dive at speeds of over 150 kilometers per hour (93 mph) when hunting prey.</t>
+  </si>
+  <si>
+    <t>Habitat: Deer are found in a wide range of habitats, including forests, grasslands, mountains, and even urban areas. They prefer areas with plenty of vegetation and water sources.
+Reproduction: Deer are viviparous, with females giving birth to 1-2 fawns after a gestation period of about 6-7 months. Fawns are born with spots, which help them camouflage in the grass.
+Height &amp; Weight: Deer sizes vary greatly depending on the species. Small species like the roe deer stand about 70 cm tall and weigh around 30 kg, while larger species like the red deer can stand over 1.2 meters tall and weigh up to 200 kg.
+Sound: Deer communicate through a range of sounds, including grunts, bellows, and bleats. During the mating season, males often make loud roaring or bellowing calls to attract mates.
+Characterization: Deer are graceful and agile animals known for their speed and jumping ability. They have long, slender legs and are herbivores that graze on grass, leaves, and fruits. Male deer typically grow antlers, which are shed and regrown each year.
+Diet: Deer are herbivores, feeding on grass, leaves, fruits, and bark. They are also known to browse on shrubs and small plants, especially in forested areas.
+Fun Fact: Deer have a highly developed sense of hearing and smell, which helps them detect predators from a distance. They can also jump as high as 3 meters and run at speeds of up to 50 km/h (31 mph).</t>
+  </si>
+  <si>
+    <t>Habitat: Foxes are found in a variety of environments, including forests, grasslands, mountains, deserts, and even urban areas. They are highly adaptable and thrive in diverse habitats across the world.
+Reproduction: Foxes are viviparous, with females (vixens) giving birth to 2-12 pups after a gestation period of about 50-60 days. The pups are born blind and helpless and rely on their mother for protection and nourishment.
+Height &amp; Weight: Foxes are relatively small canines, with the red fox standing about 35-50 cm tall at the shoulder and weighing between 3-14 kg, depending on the species.
+Sound: Foxes produce a variety of sounds, including barks, screeches, howls, and yelps. They use these vocalizations to communicate with each other, especially during mating season.
+Characterization: Foxes are known for their intelligence, cunning behavior, and adaptability. They are excellent hunters and can catch small mammals, birds, and insects. Foxes have bushy tails (often called "brushes") that help them balance and stay warm in cold weather. Their thick fur helps them survive in a range of climates.
+Diet: Foxes are omnivorous and opportunistic feeders, eating small mammals, birds, insects, fruits, and vegetables. In urban areas, they may scavenge for food in garbage or compost.
+Fun Fact: Foxes use their tails not only for balance but also as a warm cover in cold weather. They are one of the few wild animals that can thrive in both rural and urban environments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitat:
 Dogs are domesticated animals and live alongside humans in homes, farms, and cities. They adapt well to a variety of environments, including rural areas and urban settings.
 Reproduction: 
 Dogs are viviparous, meaning they give birth to live puppies. A typical litter consists of 1 to 12 puppies, depending on the breed.
@@ -47,376 +416,9 @@
 Sound: Dogs bark, howl, and growl. Different breeds and sizes have distinct barks, from high-pitched to deep and loud.
 Characterization: Dogs are known for being loyal, intelligent, and friendly. They are used as companions, workers (like guide dogs or police dogs), and even emotional support animals. Dogs love to play, fetch, and explore their surroundings. Some dogs have jobs, such as herding livestock or assisting humans with disabilities.
 Diet: Dogs are omnivores, which means they eat both meat and plants. Pet dogs usually eat specially prepared dog food.
-Fun Fact: Dogs have an incredible sense of smell, much stronger than humans, and can even be trained to sniff out illnesses or substances like drugs.</t>
-  </si>
-  <si>
-    <t>Habitat: Cats are found in homes, farms, and occasionally in the wild. Domesticated cats thrive in urban and rural environments and can live indoors or outdoors.
-Reproduction: Cats are viviparous and typically give birth to 3-6 kittens per litter. Cats reach maturity quickly, with a pregnancy lasting about 9 weeks.
-Height &amp; Weight: Adult cats range from 23 to 25 cm tall and typically weigh 3-7 kg, depending on their breed and health.
-Sound: Cats communicate with a range of sounds, including meowing, purring (when content), and hissing (when threatened). Cats also "chirp" or "chatter" when they see birds or other prey.
-Characterization: Cats are independent, agile, and curious. They are known for their ability to jump high and land gracefully. Cats are excellent hunters and enjoy chasing small animals or toys. They are often affectionate with their owners but are also content spending time alone.
-Diet: Cats are obligate carnivores, meaning they need meat to survive. In the wild, they hunt small prey like birds and rodents, while pet cats are typically fed cat food.
-Fun Fact: Cats have retractable claws that help them keep their claws sharp for hunting and climbing.</t>
-  </si>
-  <si>
-    <t>Bird</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>Horse</t>
-  </si>
-  <si>
-    <t>Elephant</t>
-  </si>
-  <si>
-    <t>Lion</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>Cow</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Zebra</t>
-  </si>
-  <si>
-    <t>Giraffe</t>
-  </si>
-  <si>
-    <t>Monkey</t>
-  </si>
-  <si>
-    <t>Panda</t>
-  </si>
-  <si>
-    <t>Kangaroo</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>Snake</t>
-  </si>
-  <si>
-    <t>Crocodile</t>
-  </si>
-  <si>
-    <t>Dolphin</t>
-  </si>
-  <si>
-    <t>Whale</t>
-  </si>
-  <si>
-    <t>Shark</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Frog</t>
-  </si>
-  <si>
-    <t>Duck</t>
-  </si>
-  <si>
-    <t>Goat</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Owl</t>
-  </si>
-  <si>
-    <t>Eagle</t>
-  </si>
-  <si>
-    <t>Deer</t>
-  </si>
-  <si>
-    <t>Fox</t>
-  </si>
-  <si>
-    <t>Habitat: Birds are found in almost every type of habitat on Earth, including forests, wetlands, mountains, deserts, and even urban areas. Some birds migrate long distances to find food or breed.
-Reproduction: Birds are oviparous, laying eggs that hatch after a certain period. Depending on the species, birds may lay one or multiple eggs at a time.
-Height &amp; Weight: Bird sizes vary widely depending on the species. Small birds like sparrows can be 10 cm tall and weigh 15 grams, while large birds like eagles can reach up to 100 cm and weigh up to 6 kg.
-Sound: Birds make a variety of sounds, from chirps and whistles to songs. Singing is often a way for male birds to attract mates or mark their territory.
-Characterization: Birds are highly diverse in their appearance and behavior. Most birds have the ability to fly using their wings, and they build nests to lay their eggs. Some birds, like parrots, can mimic human speech, while others, like owls, are known for their exceptional night vision.
-Diet: Birds' diets vary by species. Some are herbivores (eating seeds, fruits, and nectar), while others are carnivores (eating insects, small mammals, or fish).
-Fun Fact: The peregrine falcon is the fastest bird in the world, reaching speeds of over 300 km/h (186 mph) when diving for prey.</t>
-  </si>
-  <si>
-    <t>Habitat: Fish live in a variety of aquatic environments, including freshwater rivers and lakes, as well as saltwater oceans and seas. They are found at all depths, from shallow waters to deep ocean floors.
-Reproduction: Most fish are oviparous, meaning they lay eggs, but some species, like certain types of sharks, give birth to live young (viviparous).
-Height &amp; Weight: Fish come in many sizes. Small fish, like guppies, may be only a few centimeters long and weigh a few grams, while larger fish, like whale sharks, can reach lengths of 12 meters and weigh several tons.
-Sound: Fish are generally silent, but some species produce low-frequency sounds to communicate or ward off predators.
-Characterization: Fish are known for their streamlined bodies that help them swim efficiently. They have gills that allow them to breathe underwater, and most have scales for protection. Some fish live in schools, while others prefer solitude.
-Diet: Fish diets depend on their species. Carnivorous fish eat smaller fish and invertebrates, while herbivorous fish eat plants and algae.
-Fun Fact: The anglerfish uses a glowing lure on its head to attract prey in the dark depths of the ocean.</t>
-  </si>
-  <si>
-    <t>Habitat: Horses are domesticated animals found in farms, grasslands, and stables. Wild horses live in open plains, deserts, or grasslands.
-Reproduction: Horses are viviparous, giving birth to live young (called foals) after a pregnancy lasting about 11 months. Typically, one foal is born at a time.
-Height &amp; Weight: Horses stand between 140-170 cm tall and weigh 380-1,000 kg, depending on the breed.
-Sound: Horses neigh, whinny, or snort to communicate. They also "nicker" softly to greet their owners or other horses.
-Characterization: Horses are known for their strength, speed, and endurance. They are used for riding, farming, and competitive sports like racing and jumping. Horses form strong bonds with humans and are often seen as symbols of freedom and power.
-Diet: Horses are herbivores, feeding mainly on grasses, hay, and grains. They spend much of their day grazing.
-Fun Fact: Horses can sleep both lying down and standing up, thanks to a special mechanism in their legs that locks their joints in place</t>
-  </si>
-  <si>
-    <t>Habitat: Elephants are found in savannas, forests, and grasslands in Africa and Asia. They prefer environments with plenty of food and water sources.
-Reproduction: Elephants are viviparous and have one of the longest pregnancies of any land animal, lasting about 22 months. Typically, a single calf is born, weighing around 100 kg at birth.
-Height &amp; Weight: Elephants stand 250-400 cm tall and weigh 2,700-6,000 kg.
-Sound: Elephants communicate using low-frequency sounds called "rumbles" and trumpeting noises. They can communicate over long distances using these sounds.
-Characterization: Elephants are known for their large size, long trunks, and tusks. They are highly intelligent and social animals, often living in herds led by a matriarch. Elephants have excellent memories and are capable of complex emotions such as grief and compassion.
-Diet: Elephants are herbivores, eating large amounts of vegetation such as grasses, leaves, fruits, and bark. An adult elephant can eat up to 150 kg of food a day.
-Fun Fact: Elephants can use their trunks for a variety of tasks, including grabbing objects, drinking water, and even showing affection by wrapping trunks around each other.</t>
-  </si>
-  <si>
-    <t>Habitat: Lions are found in the savannas, grasslands, and open woodlands of sub-Saharan Africa. They prefer environments where they can find plenty of prey, such as zebras and antelopes.
-Reproduction: Lions are viviparous. After a gestation period of about 110 days, lionesses give birth to 1-4 cubs. Cubs are born blind and rely on their mother for protection and food.
-Height &amp; Weight: Male lions can reach heights of up to 120 cm at the shoulder and weigh between 150-250 kg. Females are slightly smaller, weighing 120-180 kg.
-Sound: Lions are known for their powerful roar, which can be heard up to 8 km away. They also communicate through growls, grunts, and moans.
-Characterization: Lions are often called "the king of the jungle" due to their majestic appearance and dominance in the animal kingdom. They live in groups called prides, which are composed of related females, their offspring, and a few adult males. Lions are powerful hunters, with females doing most of the hunting while males protect the pride.
-Diet: Lions are carnivores and primarily hunt large herbivores like zebras, buffalo, and antelope. They use teamwork to take down their prey.
-Fun Fact: Male lions develop a mane as they grow older, which serves to protect their necks during fights and makes them appear larger to rivals.</t>
-  </si>
-  <si>
-    <t>Habitat: Tigers are found in a variety of habitats, including tropical forests, grasslands, and swamps, primarily in Asia. The largest populations are found in India.
-Reproduction: Tigers are viviparous, with females giving birth to 2-4 cubs after a gestation period of about 3.5 months. Cubs stay with their mother for two years before becoming independent.
-Height &amp; Weight: Tigers can reach heights of 90-110 cm at the shoulder and weigh between 100-300 kg, depending on the subspecies.
-Sound: Tigers roar, growl, and make a chuffing sound when content. Their roar can be heard over long distances.
-Characterization: Tigers are solitary animals and the largest of all big cats. They are known for their beautiful orange coats with black stripes, which help them blend into the forest. Tigers are powerful swimmers and often hunt by ambushing their prey.
-Diet: Tigers are carnivorous, preying on deer, wild boar, and even water buffalo. They can eat up to 40 kg of meat in one meal.
-Fun Fact: No two tigers have the same stripe pattern, making each tiger unique, much like human fingerprints.</t>
-  </si>
-  <si>
-    <t>Habitat: Cows are domesticated animals found on farms, grasslands, and ranches worldwide. They are raised primarily for milk, meat, and leather.
-Reproduction: Cows are viviparous, with a gestation period of about 9 months. Usually, one calf is born, but twins can occur occasionally.
-Height &amp; Weight: Adult cows stand between 120-150 cm tall and can weigh anywhere from 400-1,100 kg depending on the breed.
-Sound: Cows make a distinctive "moo" sound, which they use to communicate with each other and their calves.
-Characterization: Cows are gentle and social animals, often living in herds. They are important in agriculture, providing milk, meat, and other products. Cows spend most of their day grazing on grass and chewing cud.
-Diet: Cows are herbivores and primarily eat grass, hay, and grains. Their four-chambered stomachs allow them to digest tough plant materials.
-Fun Fact: Cows have an excellent sense of smell and can detect odors up to 8 kilometers away</t>
-  </si>
-  <si>
-    <t>Habitat: Sheep are domesticated animals raised on farms and pastures around the world. They prefer open grasslands and meadows where they can graze.
-Reproduction: Sheep are viviparous, typically giving birth to 1-2 lambs after a gestation period of about 5 months.
-Height &amp; Weight: Sheep stand between 60-120 cm tall and weigh between 45-160 kg, depending on the breed.
-Sound: Sheep communicate by bleating, a sound that is often heard as "baa." Ewes and their lambs can recognize each other by their unique bleats.
-Characterization: Sheep are known for their woolly coats, which are sheared once a year to make wool for clothing. They are gentle, flock animals that stick together for protection. Sheep are also raised for their meat and milk.
-Diet: Sheep are herbivores and primarily graze on grass, but they also eat hay and grains when available.
-Fun Fact: Sheep have excellent peripheral vision; their eyes are placed on the sides of their heads, allowing them to see almost 360 degrees around them.</t>
-  </si>
-  <si>
-    <t>Habitat: Rabbits are found in forests, meadows, grasslands, and even deserts. Domesticated rabbits are kept as pets or raised for their meat and fur.
-Reproduction: Rabbits are viviparous and have a very short gestation period of about 30 days, giving birth to 4-12 kits in each litter. They are known for their high reproductive rate.
-Height &amp; Weight: Rabbits range from 20-50 cm in height and weigh 0.5-2 kg, depending on the breed.
-Sound: Rabbits are generally quiet but can make soft squealing or thumping sounds when frightened or excited.
-Characterization: Rabbits are known for their long ears, strong hind legs, and ability to hop quickly. They dig burrows to live in and are social animals that live in groups. They are often associated with spring and fertility due to their rapid breeding.
-Diet: Rabbits are herbivores and primarily eat grass, vegetables, and fruits. Their digestive system is adapted to process large amounts of fiber.
-Fun Fact: A rabbit's teeth never stop growing, so they need to constantly chew on things to wear them down.</t>
-  </si>
-  <si>
-    <t>Habitat: Zebras live in the grasslands and savannas of Africa. They prefer open plains where they can graze and detect predators from a distance.
-Reproduction: Zebras are viviparous, giving birth to one foal after a gestation period of about 12-13 months. Foals are able to stand and walk shortly after birth.
-Height &amp; Weight: Zebras stand 130-150 cm tall at the shoulder and weigh between 200-450 kg.
-Sound: Zebras make barking sounds, brays, and high-pitched squeals to communicate with each other.
-Characterization: Zebras are famous for their black and white stripes, which help them camouflage in the tall grasses of their environment. They live in groups called herds and are known for their speed and agility when escaping predators like lions.
-Diet: Zebras are herbivores and spend most of their day grazing on grasses. They also eat leaves, bark, and shrubs when grass is scarce.
-Fun Fact: No two zebras have the same stripe pattern, making each zebra unique</t>
-  </si>
-  <si>
-    <t>Habitat: Giraffes are native to the African savannas and open woodlands. They prefer areas with plenty of trees, especially acacias, which provide their primary food source.
-Reproduction: Giraffes are viviparous and give birth to one calf after a gestation period of about 15 months. Giraffe calves are about 1.8 meters tall at birth and can stand and walk within a few hours.
-Height &amp; Weight: Giraffes are the tallest land animals, reaching heights of 400-600 cm and weighing between 800-1,200 kg.
-Sound: Giraffes are generally quiet, but they can produce low humming sounds, grunts, and snorts to communicate.
-Characterization: Giraffes are known for their extremely long necks and legs, which allow them to reach the leaves on tall trees. Despite their height, they are gentle creatures that live in loose social groups. Giraffes have a distinct walking pattern, moving both legs on one side of their body at the same time.
-Diet: Giraffes are herbivores and primarily eat the leaves of acacia trees. They use their long tongues to grasp and pull down branches.
-Fun Fact: A giraffe's tongue can be up to 45 cm long and is specially adapted to grab leaves and avoid the thorns on acacia trees.</t>
-  </si>
-  <si>
-    <t>Habitat: Monkeys are found in tropical rainforests, savannas, mountains, and grasslands around the world, especially in South America, Asia, and Africa.
-Reproduction: Monkeys are viviparous and give birth to one or two offspring after a gestation period of about 4-7 months, depending on the species.
-Height &amp; Weight: Monkeys vary greatly in size. Small monkeys like marmosets may only weigh 100 grams, while larger species like baboons can weigh over 30 kg.
-Sound: Monkeys are very vocal, using a variety of sounds to communicate, including chattering, screeching, and whooping.
-Characterization: Monkeys are known for their intelligence, agility, and social behavior. Many species live in large groups called troops, where they groom each other and establish strong bonds. Monkeys are highly curious and often use tools to get food. They are excellent climbers and use their hands, feet, and sometimes tails to grasp branches.
-Diet: Monkeys are omnivores, eating fruits, leaves, insects, and small animals. Some species specialize in certain types of food, such as fruit or insects.
-Fun Fact: Some monkeys, like capuchins, use tools to crack open nuts or retrieve insects from tree bark, demonstrating their advanced problem-solving abilities.</t>
-  </si>
-  <si>
-    <t>Habitat: Giant pandas are native to the bamboo forests of the mountainous regions of central China, primarily in Sichuan, Shaanxi, and Gansu provinces.
-Reproduction: Pandas are viviparous, with females giving birth to one or two cubs after a gestation period of about 5 months. Cubs are born very small and helpless, weighing only 100 grams.
-Height &amp; Weight: Adult pandas stand between 60-90 cm tall at the shoulder and weigh between 70-160 kg, depending on their diet and environment.
-Sound: Pandas communicate using a variety of vocalizations, including bleating, honking, growling, and barking.
-Characterization: Pandas are known for their distinctive black and white coloring and their gentle, calm nature. They are solitary animals and spend most of their time eating bamboo, their primary food source. Pandas are excellent climbers and swimmers, despite their bulky appearance.
-Diet: Although pandas are classified as carnivores, they are largely herbivorous, with bamboo making up about 99% of their diet. They may occasionally eat small animals or eggs.
-Fun Fact: A panda can eat up to 12 kg of bamboo each day! They have a specially adapted wrist bone that functions like a thumb, allowing them to grasp bamboo stalks.</t>
-  </si>
-  <si>
-    <t>Habitat: Kangaroos are native to Australia, where they live in open grasslands, forests, and scrublands. Some species also inhabit coastal areas.
-Reproduction: Kangaroos are viviparous marsupials, meaning their young are born underdeveloped and continue to grow in the mother's pouch. After a gestation period of about 30-40 days, a tiny joey is born and crawls into the mother's pouch, where it nurses and grows for several months.
-Height &amp; Weight: Adult kangaroos can stand between 100-160 cm tall and weigh between 20-90 kg, depending on the species.
-Sound: Kangaroos make a variety of sounds, including chortling, coughing, and clicking. Mothers communicate with their joeys using soft clucking noises.
-Characterization: Kangaroos are known for their strong hind legs and large feet, which allow them to hop at great speeds. They also have long, muscular tails used for balance. Kangaroos are social animals, often seen in groups called mobs, and are herbivores that graze on grasses and plants.
-Diet: Kangaroos primarily eat grass, leaves, and shrubs. They are able to survive in arid environments by conserving water and eating drought-resistant plants.
-Fun Fact: Kangaroos can travel at speeds of up to 60 km/h (37 mph) and can leap over obstacles as high as 3 meters in a single bound!</t>
-  </si>
-  <si>
-    <t>Habitat: Penguins are found primarily in the Southern Hemisphere, with most species living in Antarctica, South America, Africa, and New Zealand. They prefer coastal regions and are often seen on icy shores or rocky islands.
-Reproduction: Penguins are oviparous, laying one or two eggs at a time, depending on the species. The parents take turns incubating the eggs and keeping them warm.
-Height &amp; Weight: Penguin sizes vary widely depending on the species. The smallest species, the Little Blue Penguin, stands about 40 cm tall and weighs around 1 kg, while the Emperor Penguin, the largest species, can stand up to 120 cm tall and weigh over 40 kg.
-Sound: Penguins communicate with a variety of vocalizations, including honks, brays, and squawks. They often use these sounds to recognize their mates or chicks in crowded colonies.
-Characterization: Penguins are flightless birds known for their distinctive black and white plumage and waddling walk. They are excellent swimmers, using their wings as flippers to propel themselves through the water. Penguins spend much of their time hunting fish, squid, and krill in the ocean.
-Diet: Penguins are carnivorous and primarily eat fish, krill, and squid. They are exceptional hunters and can dive to great depths to catch their prey.
-Fun Fact: Emperor Penguins can hold their breath for up to 20 minutes and dive to depths of over 500 meters when hunting for food.</t>
-  </si>
-  <si>
-    <t>Habitat: Koalas are found in eucalyptus forests along the eastern coast of Australia. They prefer environments with plenty of eucalyptus trees, which provide both food and shelter.
-Reproduction: Koalas are viviparous marsupials, giving birth to underdeveloped young that continue to grow in the mother's pouch. After a gestation period of about 35 days, a tiny joey is born and crawls into the pouch, where it will stay for about six months.
-Height &amp; Weight: Koalas typically stand between 60-85 cm tall and weigh between 4-15 kg, depending on their habitat and diet.
-Sound: Koalas make low grunts and bellows to communicate, especially during mating season. They are usually quiet animals.
-Characterization: Koalas are nocturnal, tree-dwelling marsupials known for their fuzzy ears and sleepy demeanor. They spend most of their time in eucalyptus trees, where they eat leaves and sleep up to 20 hours a day. Despite their chubby appearance, koalas are excellent climbers.
-Diet: Koalas are herbivores and eat almost exclusively eucalyptus leaves. They have a specialized digestive system that allows them to break down the tough leaves, which are toxic to most animals.
-Fun Fact: Koalas have fingerprints that are nearly identical to human fingerprints, making them one of the few non-primate animals to have this feature.</t>
-  </si>
-  <si>
-    <t>Habitat: Snakes are found in a variety of environments, including forests, deserts, grasslands, and wetlands. Some species live in water, while others are terrestrial or arboreal (tree-dwelling).
-Reproduction: Snakes can be oviparous (laying eggs) or viviparous (giving birth to live young), depending on the species. Egg-laying snakes deposit their eggs in safe, hidden places until they hatch.
-Height &amp; Weight: Snake sizes vary greatly depending on the species. Small snakes may only be 10 cm long, while large species like pythons and anacondas can grow to over 8 meters and weigh hundreds of kilograms.
-Sound: Snakes don't vocalize but can produce hissing sounds to warn off predators. Some species, like rattlesnakes, make noise with their tails.
-Characterization: Snakes are known for their elongated, legless bodies and smooth scales. They move by slithering, using muscles along their bodies. Some species, like cobras, are venomous and use their fangs to inject venom into their prey, while others, like pythons, constrict their prey by wrapping around them.
-Diet: Snakes are carnivorous, feeding on small animals like rodents, birds, and amphibians. Larger snakes can take down bigger prey, such as deer or pigs.
-Fun Fact: Some snakes, like the boa constrictor, can unhinge their jaws to swallow prey that is much larger than their head!</t>
-  </si>
-  <si>
-    <t>Habitat: Crocodiles are found in freshwater habitats such as rivers, lakes, wetlands, and sometimes brackish water (a mix of saltwater and freshwater). They live in tropical regions around the world, including Africa, Asia, Australia, and the Americas.
-Reproduction: Crocodiles are oviparous, laying their eggs in nests near water. The mother guards the nest until the eggs hatch, and she may help her young reach the water.
-Height &amp; Weight: Crocodiles can grow to an impressive size, with some species reaching lengths of 3-7 meters and weighing up to 1,000 kg.
-Sound: Crocodiles make hissing sounds when threatened, and young crocodiles produce squeaking noises to communicate with their mother.
-Characterization: Crocodiles are ancient reptiles known for their powerful jaws, long tails, and armored skin. They are excellent swimmers and ambush predators, waiting near the water's edge to snatch prey like fish, birds, and mammals. Crocodiles can be very aggressive and are considered apex predators in their environments.
-Diet: Crocodiles are carnivorous and will eat almost any animal they can catch, including fish, birds, and mammals. Larger species may even hunt larger prey, such as zebras or wildebeest.
-Fun Fact: Crocodiles have an incredibly strong bite—up to 3,700 pounds per square inch (psi)—making them one of the strongest biters in the animal kingdom.</t>
-  </si>
-  <si>
-    <t>Habitat: Dolphins are found in oceans and rivers around the world. They prefer warm, tropical, and temperate waters, though some species live in colder waters.
-Reproduction: Dolphins are viviparous, giving birth to live young after a gestation period of about 12 months. A single calf is typically born and stays with its mother for several years.
-Height &amp; Weight: Dolphins vary in size, with the smallest species being around 2 meters long and weighing 100 kg, while the largest, like the orca (killer whale), can be over 8 meters long and weigh up to 5,500 kg.
-Sound: Dolphins communicate through clicks, whistles, and other vocalizations. They also use echolocation to navigate and find prey in the ocean.
-Characterization: Dolphins are highly intelligent and social animals, known for their playful behavior and strong family bonds. They are excellent swimmers, often seen leaping out of the water or riding waves. Dolphins live in groups called pods and cooperate in hunting and caring for their young.
-Diet: Dolphins are carnivorous and primarily eat fish and squid. They use echolocation to locate schools of fish and work together to herd and catch their prey.
-Fun Fact: Dolphins are one of the few animals that can recognize themselves in a mirror, a sign of self-awareness.</t>
-  </si>
-  <si>
-    <t>Habitat: Whales are found in all of the world’s oceans, from polar to tropical waters. Some species prefer coastal areas, while others live in the open ocean. Baleen whales like blue and humpback whales migrate long distances between feeding and breeding grounds.
-Reproduction: Whales are viviparous and give birth to live young. After a gestation period of 10-16 months, depending on the species, females give birth to a single calf. The mother nurses her calf for several months, providing rich milk.
-Height &amp; Weight: Whales vary significantly in size. The blue whale, the largest animal on Earth, can grow up to 30 meters in length and weigh over 180,000 kg, while smaller species, like the dwarf sperm whale, can be as short as 2.7 meters.
-Sound: Whales produce a variety of sounds, from clicks and whistles to the haunting songs of humpback whales. These vocalizations are used to communicate, find mates, and navigate the ocean.
-Characterization: Whales are known for their enormous size, intelligence, and social behaviors. Some species, like orcas, live in tight family groups known as pods, while others, like blue whales, are more solitary. Whales are powerful swimmers and can travel thousands of kilometers during migration.
-Diet: Baleen whales filter small organisms like krill, plankton, and small fish from the water using comb-like baleen plates. Toothed whales, such as orcas and sperm whales, hunt larger prey like fish, squid, and even other marine mammals.
-Fun Fact: The blue whale's heart is so large that a human could crawl through its arteries, and its heart alone weighs as much as a car!</t>
-  </si>
-  <si>
-    <t>Habitat: Sharks are found in all the world’s oceans, from shallow coastal waters to the deep sea. Some species, like the great white shark, prefer cooler waters, while others, like the reef shark, live in warmer, tropical regions.
-Reproduction: Depending on the species, sharks can be oviparous (laying eggs) or viviparous (giving birth to live young). Some sharks, like the great white, give birth to live young, while others, like the horn shark, lay eggs in protective cases.
-Height &amp; Weight: Sharks vary greatly in size, from the small dwarf lantern shark, which is only 17 cm long, to the massive whale shark, which can grow up to 12 meters and weigh over 20,000 kg.
-Sound: Sharks are typically silent hunters and do not produce sounds, relying on their keen senses to locate prey.
-Characterization: Sharks are apex predators, known for their sharp teeth, streamlined bodies, and powerful swimming abilities. They have been around for over 400 million years, making them one of the oldest species on Earth. Sharks are known for their acute senses, including their ability to detect the electrical signals of prey.
-Diet: Most sharks are carnivorous, feeding on fish, squid, and marine mammals. Some species, like the whale shark, are filter feeders and consume plankton.
-Fun Fact: Sharks have rows of teeth that are constantly replaced throughout their lives. Some species can lose thousands of teeth over their lifetime.</t>
-  </si>
-  <si>
-    <t>Habitat: Turtles are found in a variety of environments, including oceans, rivers, lakes, and on land. Sea turtles inhabit coastal waters and open oceans, while freshwater turtles live in ponds and rivers, and terrestrial turtles (tortoises) live in dry environments.
-Reproduction: Turtles are oviparous, laying eggs in nests dug into sand or soil. Female sea turtles return to the same beaches where they were born to lay their eggs, and the hatchlings must make their way to the ocean on their own after hatching.
-Height &amp; Weight: Turtles come in many sizes. The largest, the leatherback sea turtle, can grow up to 2 meters in length and weigh as much as 900 kg, while smaller freshwater species may only reach 20 cm in length.
-Sound: Turtles are generally quiet animals but may produce soft grunts or hissing sounds when threatened.
-Characterization: Turtles are known for their hard shells, which provide protection from predators. They are slow-moving on land but can be swift and graceful swimmers in the water. Sea turtles migrate long distances between feeding and nesting grounds.
-Diet: Depending on the species, turtles can be herbivorous, carnivorous, or omnivorous. Sea turtles feed on jellyfish, seagrass, and algae, while freshwater turtles may eat fish, insects, and plants.
-Fun Fact: Sea turtles can hold their breath for hours while diving, and some species can travel thousands of kilometers during migration.</t>
-  </si>
-  <si>
-    <t>Habitat: Frogs live in a wide range of habitats, including forests, wetlands, ponds, and rivers. They are most commonly found near bodies of fresh water, where they lay their eggs and spend their early life stages.
-Reproduction: Frogs are oviparous, laying their eggs in water. The eggs hatch into tadpoles, which are aquatic and undergo metamorphosis to become adult frogs. Frogs usually lay hundreds or even thousands of eggs at a time.
-Height &amp; Weight: Frogs vary greatly in size, with some small species being just a few centimeters long, while larger species, like the goliath frog, can grow up to 30 cm and weigh over 3 kg.
-Sound: Frogs are known for their distinctive croaking, ribbiting, and chirping sounds, which they use to communicate, especially during mating season. Male frogs often call to attract females.
-Characterization: Frogs are amphibians, meaning they live both in water and on land. They have strong hind legs for jumping and are excellent swimmers. Frogs are also known for their smooth, moist skin, which they need to keep hydrated.
-Diet: Frogs are carnivorous, primarily eating insects, spiders, and other small invertebrates. Larger frogs may eat small animals like mice or other frogs.
-Fun Fact: Frogs can absorb water through their skin, so they don’t need to drink water like most animals do.</t>
-  </si>
-  <si>
-    <t>Habitat: Ducks live in freshwater habitats such as lakes, rivers, and ponds. Some species also inhabit coastal marshes and wetlands. They are found all over the world in both temperate and tropical regions.
-Reproduction: Ducks are oviparous, laying a clutch of eggs in a nest, usually near water. The mother incubates the eggs for about 28 days, and the ducklings are able to swim and feed themselves shortly after hatching.
-Height &amp; Weight: Ducks range in size, with small species weighing around 0.5 kg and larger species, like the mallard, weighing up to 1.5 kg.
-Sound: Ducks are known for their distinctive "quack" sounds, but they also make other vocalizations such as whistles, grunts, and coos, depending on the species.
-Characterization: Ducks are waterfowl with webbed feet, which make them excellent swimmers. They are known for their waddling walk and ability to fly short to long distances. Ducks are social animals, often seen in flocks, and they feed by dabbling or diving for food.
-Diet: Ducks are omnivorous and eat a variety of foods, including aquatic plants, insects, small fish, and grains. They often forage by dipping their heads underwater while floating.
-Fun Fact: Not all ducks quack! Some species, like the wood duck, make whistling sounds instead of quacking.</t>
-  </si>
-  <si>
-    <t>Habitat: Goats are domesticated animals found on farms and in mountainous regions. Wild goats live in rocky, mountainous areas where they are well adapted to climbing steep slopes.
-Reproduction: Goats are viviparous, giving birth to 1-3 kids after a gestation period of about 5 months. The kids are usually able to stand and walk within hours of being born.
-Height &amp; Weight: Goats stand between 40-120 cm tall and weigh between 30-140 kg, depending on the breed.
-Sound: Goats are known for their bleating, a sound that is often heard as "baa." They use this sound to communicate with each other and their young.
-Characterization: Goats are hardy animals known for their ability to climb steep, rocky terrains. They are curious and intelligent, often using their agility to escape enclosures. Goats are also known for their valuable products, such as milk, meat, and wool.
-Diet: Goats are herbivores and prefer to browse on leaves, shrubs, and grasses. They are highly adaptable and can eat a wide variety of vegetation.
-Fun Fact: Goats have rectangular pupils, which give them excellent peripheral vision and help them spot predators.</t>
-  </si>
-  <si>
-    <t>Habitat: Pigs are domesticated animals found on farms around the world. Wild pigs, such as wild boars, inhabit forests, grasslands, and swamps.
-Reproduction: Pigs are viviparous, with sows giving birth to 6-12 piglets after a gestation period of about 3.5 months. Piglets are born fully developed and can walk and nurse within minutes of birth.
-Height &amp; Weight: Pigs vary in size, with domesticated breeds weighing between 30-300 kg, while wild pigs can weigh up to 350 kg.
-Sound: Pigs communicate using grunts, oinks, and squeals. They use these sounds to express a variety of emotions, such as contentment, excitement, or distress.
-Characterization: Pigs are highly intelligent animals known for their social behavior. They are often raised for their meat, but they are also kept as pets. Pigs enjoy rooting in the ground with their snouts, searching for food.
-Diet: Pigs are omnivores and eat a variety of foods, including fruits, vegetables, grains, and small animals. They are highly adaptable and can find food in a wide range of environments.
-Fun Fact: Pigs are clean animals by nature. Despite their reputation, pigs do not like to soil the areas where they sleep and will often designate a specific spot for waste.</t>
-  </si>
-  <si>
-    <t>Habitat: Owls are found in a variety of habitats, including forests, grasslands, deserts, and even urban areas. They prefer environments with plenty of trees or open areas where they can hunt.
-Reproduction: Owls are oviparous, laying eggs in nests made in tree cavities, on cliff ledges, or in abandoned buildings. The female incubates the eggs, and both parents help feed the young.
-Height &amp; Weight: Owls range in size from small species, like the elf owl (15 cm, 50 grams), to large species, like the Eurasian eagle owl (70 cm, 4 kg).
-Sound: Owls are known for their hoots, but they also make other sounds like screeches, whistles, and barks, depending on the species.
-Characterization: Owls are nocturnal birds of prey with large eyes adapted for seeing in low light. They have silent flight due to their soft, fringed feathers, making them excellent hunters of small mammals, birds, and insects.
-Diet: Owls are carnivorous and feed primarily on small mammals like mice, rats, and rabbits, though some species hunt birds, insects, and fish.
-Fun Fact: Owls can turn their heads up to 270 degrees, allowing them to look in almost any direction without moving their bodies.</t>
-  </si>
-  <si>
-    <t>Habitat: Eagles are found across a variety of habitats, including mountains, forests, grasslands, and near bodies of water such as lakes, rivers, and coasts. They are most commonly found in North America, Europe, Asia, and Africa.
-Reproduction: Eagles are oviparous, typically laying 1-3 eggs in large nests called eyries, which are built high in trees or on cliffs. Both parents take turns incubating the eggs, and the young are cared for by both parents after hatching.
-Height &amp; Weight: Eagles vary in size depending on the species. The bald eagle, for example, stands about 90 cm tall and has a wingspan of up to 2.5 meters. They can weigh between 3-7 kg.
-Sound: Eagles make high-pitched, whistling or chirping calls. They use these vocalizations to communicate with their mates or to defend their territory.
-Characterization: Eagles are powerful birds of prey known for their sharp talons, hooked beaks, and keen eyesight, which allows them to spot prey from great distances. They are excellent hunters, preying on fish, small mammals, and other birds. Eagles are also symbols of strength and freedom in many cultures.
-Diet: Eagles are carnivorous and typically hunt fish, small mammals, and other birds. They are skilled at catching fish by swooping down and snatching them from the water.
-Fun Fact: Eagles can fly at altitudes of up to 10,000 feet and dive at speeds of over 150 kilometers per hour (93 mph) when hunting prey.</t>
-  </si>
-  <si>
-    <t>Habitat: Deer are found in a wide range of habitats, including forests, grasslands, mountains, and even urban areas. They prefer areas with plenty of vegetation and water sources.
-Reproduction: Deer are viviparous, with females giving birth to 1-2 fawns after a gestation period of about 6-7 months. Fawns are born with spots, which help them camouflage in the grass.
-Height &amp; Weight: Deer sizes vary greatly depending on the species. Small species like the roe deer stand about 70 cm tall and weigh around 30 kg, while larger species like the red deer can stand over 1.2 meters tall and weigh up to 200 kg.
-Sound: Deer communicate through a range of sounds, including grunts, bellows, and bleats. During the mating season, males often make loud roaring or bellowing calls to attract mates.
-Characterization: Deer are graceful and agile animals known for their speed and jumping ability. They have long, slender legs and are herbivores that graze on grass, leaves, and fruits. Male deer typically grow antlers, which are shed and regrown each year.
-Diet: Deer are herbivores, feeding on grass, leaves, fruits, and bark. They are also known to browse on shrubs and small plants, especially in forested areas.
-Fun Fact: Deer have a highly developed sense of hearing and smell, which helps them detect predators from a distance. They can also jump as high as 3 meters and run at speeds of up to 50 km/h (31 mph).</t>
-  </si>
-  <si>
-    <t>Habitat: Foxes are found in a variety of environments, including forests, grasslands, mountains, deserts, and even urban areas. They are highly adaptable and thrive in diverse habitats across the world.
-Reproduction: Foxes are viviparous, with females (vixens) giving birth to 2-12 pups after a gestation period of about 50-60 days. The pups are born blind and helpless and rely on their mother for protection and nourishment.
-Height &amp; Weight: Foxes are relatively small canines, with the red fox standing about 35-50 cm tall at the shoulder and weighing between 3-14 kg, depending on the species.
-Sound: Foxes produce a variety of sounds, including barks, screeches, howls, and yelps. They use these vocalizations to communicate with each other, especially during mating season.
-Characterization: Foxes are known for their intelligence, cunning behavior, and adaptability. They are excellent hunters and can catch small mammals, birds, and insects. Foxes have bushy tails (often called "brushes") that help them balance and stay warm in cold weather. Their thick fur helps them survive in a range of climates.
-Diet: Foxes are omnivorous and opportunistic feeders, eating small mammals, birds, insects, fruits, and vegetables. In urban areas, they may scavenge for food in garbage or compost.
-Fun Fact: Foxes use their tails not only for balance but also as a warm cover in cold weather. They are one of the few wild animals that can thrive in both rural and urban environments.</t>
+Fun Fact: Dogs have an incredible sense of smell, much stronger than humans, and can even be trained to sniff out illnesses or substances like drugs.
+The photo of dog:
+</t>
   </si>
 </sst>
 </file>
@@ -458,7 +460,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,6 +477,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3086100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4114800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5162550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0692DAB4-5945-CB4D-6C5B-2B48A93F7647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="3276600"/>
+          <a:ext cx="2076450" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,14 +833,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABB1BF8-D05C-4FE4-A45B-EEFC59A36667}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="250.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,263 +851,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>